--- a/Discharge/RatingCurves/Stn3.xlsx
+++ b/Discharge/RatingCurves/Stn3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whitm\OneDrive - University of North Carolina at Chapel Hill\Ecuador2021\Ecuador2021\Discharge\RatingCurves\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF583D2E-1AC4-4C59-A5F2-1D0726E2ED2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821E728C-38F6-4815-BBC3-902D92938183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{53D00B0A-2B19-4C6E-8D2D-A5D936CC125C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -65,12 +65,44 @@
   <si>
     <t>used 13:15</t>
   </si>
+  <si>
+    <r>
+      <t>y = 0.0002x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 0.0116x + 0.1542</t>
+    </r>
+  </si>
+  <si>
+    <t>Above 26 m</t>
+  </si>
+  <si>
+    <t>below 26m</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +129,14 @@
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -230,7 +270,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="power"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -575,7 +616,926 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-EC"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$29:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="1">
+                  <c:v>27.138719999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.338239999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.178830000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.454830000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.459589999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55.899810000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45.666960000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38.481020000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44.505499999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$29:$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.6169999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1240000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.064E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1710000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2959999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0551019999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2454000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8588E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0300000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.4510000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.23874000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.1047500000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.2412500000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4760500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4876E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.0810000000000021E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A5CC-48CF-A3B3-4F1DF21C8510}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1370917200"/>
+        <c:axId val="1370917616"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1370917200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1370917616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1370917616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1370917200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-EC"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.0502843394575681E-2"/>
+                  <c:y val="-0.16588764946048409"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-EC"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$52:$E$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>25.743749999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.338239999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.264479999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.33756</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.915400000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.454830000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.74681</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.459589999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.04524</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.899419999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.78181</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$52:$F$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.6169999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1240000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.064E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1710000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2959999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0551019999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2454000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8588E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0300000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.4510000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.23874000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.1047500000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.2412500000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4760500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4876E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.0810000000000021E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8875-4F84-8378-50D07E1D23DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1255499632"/>
+        <c:axId val="1255500048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1255499632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1255500048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1255500048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1255499632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-EC"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1131,20 +2091,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>149225</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>339725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>454025</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>34925</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1164,6 +3156,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>441325</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{561557F8-40C5-4865-8FFD-3091152B6721}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>441325</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A078725C-1BA6-4E46-B579-DB084056CDB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1469,15 +3533,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BA2543-2DA7-4D8E-9FC4-E1FF8DA8EE74}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -1828,6 +3893,685 @@
         <v>8.0810000000000021E-2</v>
       </c>
       <c r="F21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>44356</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.51250000000000007</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E27">
+        <v>3.4810000000000002E-3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>44357</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.59375</v>
+      </c>
+      <c r="E28">
+        <v>2.2439999999999999E-3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>44358</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.46875</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29">
+        <v>1.6169999999999999E-3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>44361</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.4694444444444445</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.46875</v>
+      </c>
+      <c r="D30" s="4">
+        <v>27.138719999999999</v>
+      </c>
+      <c r="E30">
+        <v>5.1240000000000001E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>44365</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D31" s="4">
+        <v>26.338239999999999</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>44372</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D32" s="4">
+        <v>28.178830000000001</v>
+      </c>
+      <c r="E32">
+        <v>7.064E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>44375</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33">
+        <v>5.1710000000000002E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34">
+        <v>1.2959999999999999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35">
+        <v>8.0551019999999997E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <v>44389</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D36" s="4">
+        <v>27.454830000000001</v>
+      </c>
+      <c r="E36">
+        <v>2.2454000000000002E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
+        <v>44390</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37">
+        <v>1.8588E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
+        <v>44391</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0.56805555555555554</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D38" s="4">
+        <v>26.459589999999999</v>
+      </c>
+      <c r="E38">
+        <v>8.0300000000000007E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <v>44393</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.53125</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39">
+        <v>4.4510000000000001E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <v>44396</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D40" s="4">
+        <v>55.899810000000002</v>
+      </c>
+      <c r="E40">
+        <v>0.23874000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
+        <v>44397</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D41" s="4">
+        <v>45.666960000000003</v>
+      </c>
+      <c r="E41">
+        <v>9.1047500000000003E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <v>44400</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D42" s="4">
+        <v>38.481020000000001</v>
+      </c>
+      <c r="E42">
+        <v>7.2412500000000005E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
+        <v>44403</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43">
+        <v>2.4760500000000001E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
+        <v>44404</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44">
+        <v>1.4876E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
+        <v>44368</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D45" s="4">
+        <v>44.505499999999998</v>
+      </c>
+      <c r="E45">
+        <v>8.0810000000000021E-2</v>
+      </c>
+      <c r="F45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B48" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B50" s="2">
+        <v>44356</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.51250000000000007</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="F50">
+        <v>3.4810000000000002E-3</v>
+      </c>
+      <c r="G50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B51" s="2">
+        <v>44357</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.59375</v>
+      </c>
+      <c r="F51">
+        <v>2.2439999999999999E-3</v>
+      </c>
+      <c r="G51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B52" s="2">
+        <v>44358</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0.46875</v>
+      </c>
+      <c r="E52" s="5">
+        <v>25.743749999999999</v>
+      </c>
+      <c r="F52">
+        <v>1.6169999999999999E-3</v>
+      </c>
+      <c r="G52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B53" s="2">
+        <v>44361</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0.4694444444444445</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0.46875</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53">
+        <v>5.1240000000000001E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B54" s="2">
+        <v>44365</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E54" s="4">
+        <v>26.338239999999999</v>
+      </c>
+      <c r="G54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B55" s="2">
+        <v>44372</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="F55">
+        <v>7.064E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B56" s="2">
+        <v>44375</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E56" s="4">
+        <v>22.264479999999999</v>
+      </c>
+      <c r="F56">
+        <v>5.1710000000000002E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B57" s="2">
+        <v>44382</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E57" s="4">
+        <v>24.33756</v>
+      </c>
+      <c r="F57">
+        <v>1.2959999999999999E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B58" s="2">
+        <v>44386</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E58" s="4">
+        <v>23.915400000000002</v>
+      </c>
+      <c r="F58">
+        <v>8.0551019999999997E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B59" s="2">
+        <v>44389</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E59" s="4">
+        <v>27.454830000000001</v>
+      </c>
+      <c r="F59">
+        <v>2.2454000000000002E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B60" s="2">
+        <v>44390</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E60" s="4">
+        <v>25.74681</v>
+      </c>
+      <c r="F60">
+        <v>1.8588E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B61" s="2">
+        <v>44391</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0.56805555555555554</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E61" s="4">
+        <v>26.459589999999999</v>
+      </c>
+      <c r="F61">
+        <v>8.0300000000000007E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B62" s="2">
+        <v>44393</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0.53125</v>
+      </c>
+      <c r="E62" s="4">
+        <v>19.04524</v>
+      </c>
+      <c r="F62">
+        <v>4.4510000000000001E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B63" s="2">
+        <v>44396</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E63" s="4"/>
+      <c r="F63">
+        <v>0.23874000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B64" s="2">
+        <v>44397</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E64" s="4"/>
+      <c r="F64">
+        <v>9.1047500000000003E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B65" s="2">
+        <v>44400</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E65" s="4"/>
+      <c r="F65">
+        <v>7.2412500000000005E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B66" s="2">
+        <v>44403</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E66" s="4">
+        <v>21.899419999999999</v>
+      </c>
+      <c r="F66">
+        <v>2.4760500000000001E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B67" s="2">
+        <v>44404</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E67" s="4">
+        <v>20.78181</v>
+      </c>
+      <c r="F67">
+        <v>1.4876E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B68" s="2">
+        <v>44368</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68">
+        <v>8.0810000000000021E-2</v>
+      </c>
+      <c r="G68" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Discharge/RatingCurves/Stn3.xlsx
+++ b/Discharge/RatingCurves/Stn3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whitm\OneDrive - University of North Carolina at Chapel Hill\Ecuador2021\Ecuador2021\Discharge\RatingCurves\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821E728C-38F6-4815-BBC3-902D92938183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C738187-C3C5-4AF3-8FEA-146C4669508E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{53D00B0A-2B19-4C6E-8D2D-A5D936CC125C}"/>
   </bookViews>
@@ -3535,8 +3535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BA2543-2DA7-4D8E-9FC4-E1FF8DA8EE74}">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Discharge/RatingCurves/Stn3.xlsx
+++ b/Discharge/RatingCurves/Stn3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whitm\OneDrive - University of North Carolina at Chapel Hill\Ecuador2021\Ecuador2021\Discharge\RatingCurves\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C738187-C3C5-4AF3-8FEA-146C4669508E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E510AE7-179A-4A8F-883C-B1E83318EDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{53D00B0A-2B19-4C6E-8D2D-A5D936CC125C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -95,7 +95,13 @@
     <t>Above 26 m</t>
   </si>
   <si>
-    <t>below 26m</t>
+    <t>?</t>
+  </si>
+  <si>
+    <t>used 12:00</t>
+  </si>
+  <si>
+    <t>Use 11:15 collcted be USFQ, some assumptions had to be made</t>
   </si>
 </sst>
 </file>
@@ -738,46 +744,91 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$29:$D$45</c:f>
+              <c:f>Sheet1!$D$29:$D$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.2593046</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.138719999999999</c:v>
+                  <c:v>0.27138830000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.338239999999999</c:v>
+                  <c:v>0.26338349999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.178830000000001</c:v>
+                  <c:v>0.28178940000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2226457</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2433766</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2391549</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.454830000000001</c:v>
+                  <c:v>0.2745494</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25746910000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.459589999999999</c:v>
+                  <c:v>0.26459690000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19045309999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>55.899810000000002</c:v>
+                  <c:v>0.55900030000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45.666960000000003</c:v>
+                  <c:v>0.45667140000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>38.481020000000001</c:v>
+                  <c:v>0.38481169999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.2189951</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.2078189</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44.505499999999998</c:v>
+                  <c:v>0.44505679999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.104286</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$29:$E$45</c:f>
+              <c:f>Sheet1!$E$29:$E$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.6169999999999999E-3</c:v>
                 </c:pt>
@@ -825,6 +876,27 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>8.0810000000000021E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4179999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1023,438 +1095,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-EC"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-4.0502843394575681E-2"/>
-                  <c:y val="-0.16588764946048409"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-EC"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$52:$E$68</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>25.743749999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>26.338239999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22.264479999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24.33756</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23.915400000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>27.454830000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25.74681</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>26.459589999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19.04524</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>21.899419999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20.78181</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$F$52:$F$68</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>1.6169999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.1240000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.064E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.1710000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2959999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.0551019999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.2454000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.8588E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.0300000000000007E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.4510000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.23874000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.1047500000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.2412500000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.4760500000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.4876E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.0810000000000021E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8875-4F84-8378-50D07E1D23DB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1255499632"/>
-        <c:axId val="1255500048"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1255499632"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1255500048"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1255500048"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1255499632"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-EC"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1535,46 +1175,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2092,522 +1692,6 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3192,42 +2276,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>441325</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>155575</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A078725C-1BA6-4E46-B579-DB084056CDB2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3533,15 +2581,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BA2543-2DA7-4D8E-9FC4-E1FF8DA8EE74}">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3967,12 +3015,14 @@
       <c r="C29" s="3">
         <v>0.46875</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="4">
+        <v>0.2593046</v>
+      </c>
       <c r="E29">
         <v>1.6169999999999999E-3</v>
       </c>
       <c r="F29" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -3986,7 +3036,7 @@
         <v>0.46875</v>
       </c>
       <c r="D30" s="4">
-        <v>27.138719999999999</v>
+        <v>0.27138830000000003</v>
       </c>
       <c r="E30">
         <v>5.1240000000000001E-3</v>
@@ -4003,7 +3053,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D31" s="4">
-        <v>26.338239999999999</v>
+        <v>0.26338349999999999</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
@@ -4020,7 +3070,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D32" s="4">
-        <v>28.178830000000001</v>
+        <v>0.28178940000000002</v>
       </c>
       <c r="E32">
         <v>7.064E-3</v>
@@ -4036,7 +3086,9 @@
       <c r="C33" s="3">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D33" s="4"/>
+      <c r="D33" s="4">
+        <v>0.2226457</v>
+      </c>
       <c r="E33">
         <v>5.1710000000000002E-3</v>
       </c>
@@ -4051,7 +3103,9 @@
       <c r="C34" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D34" s="4"/>
+      <c r="D34" s="4">
+        <v>0.2433766</v>
+      </c>
       <c r="E34">
         <v>1.2959999999999999E-2</v>
       </c>
@@ -4066,7 +3120,9 @@
       <c r="C35" s="3">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D35" s="4"/>
+      <c r="D35" s="4">
+        <v>0.2391549</v>
+      </c>
       <c r="E35">
         <v>8.0551019999999997E-3</v>
       </c>
@@ -4082,7 +3138,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D36" s="4">
-        <v>27.454830000000001</v>
+        <v>0.2745494</v>
       </c>
       <c r="E36">
         <v>2.2454000000000002E-2</v>
@@ -4098,7 +3154,9 @@
       <c r="C37" s="3">
         <v>0.60416666666666663</v>
       </c>
-      <c r="D37" s="4"/>
+      <c r="D37" s="4">
+        <v>0.25746910000000001</v>
+      </c>
       <c r="E37">
         <v>1.8588E-2</v>
       </c>
@@ -4114,7 +3172,7 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D38" s="4">
-        <v>26.459589999999999</v>
+        <v>0.26459690000000002</v>
       </c>
       <c r="E38">
         <v>8.0300000000000007E-3</v>
@@ -4130,7 +3188,9 @@
       <c r="C39" s="3">
         <v>0.53125</v>
       </c>
-      <c r="D39" s="4"/>
+      <c r="D39" s="4">
+        <v>0.19045309999999999</v>
+      </c>
       <c r="E39">
         <v>4.4510000000000001E-3</v>
       </c>
@@ -4146,7 +3206,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D40" s="4">
-        <v>55.899810000000002</v>
+        <v>0.55900030000000001</v>
       </c>
       <c r="E40">
         <v>0.23874000000000001</v>
@@ -4163,7 +3223,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D41" s="4">
-        <v>45.666960000000003</v>
+        <v>0.45667140000000001</v>
       </c>
       <c r="E41">
         <v>9.1047500000000003E-2</v>
@@ -4180,7 +3240,7 @@
         <v>0.5</v>
       </c>
       <c r="D42" s="4">
-        <v>38.481020000000001</v>
+        <v>0.38481169999999998</v>
       </c>
       <c r="E42">
         <v>7.2412500000000005E-2</v>
@@ -4196,7 +3256,9 @@
       <c r="C43" s="3">
         <v>0.63541666666666663</v>
       </c>
-      <c r="D43" s="4"/>
+      <c r="D43" s="4">
+        <v>0.2189951</v>
+      </c>
       <c r="E43">
         <v>2.4760500000000001E-2</v>
       </c>
@@ -4211,7 +3273,9 @@
       <c r="C44" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D44" s="4"/>
+      <c r="D44" s="4">
+        <v>0.2078189</v>
+      </c>
       <c r="E44">
         <v>1.4876E-2</v>
       </c>
@@ -4227,7 +3291,7 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D45" s="4">
-        <v>44.505499999999998</v>
+        <v>0.44505679999999997</v>
       </c>
       <c r="E45">
         <v>8.0810000000000021E-2</v>
@@ -4236,344 +3300,197 @@
         <v>6</v>
       </c>
     </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
+        <v>44489</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0.104286</v>
+      </c>
+      <c r="E46">
+        <v>1.4179999999999996E-3</v>
+      </c>
+      <c r="F46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="2"/>
+      <c r="D47" s="4"/>
+    </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B48" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E49" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B50" s="2">
-        <v>44356</v>
-      </c>
-      <c r="C50" s="3">
-        <v>0.51250000000000007</v>
-      </c>
-      <c r="D50" s="3">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="F50">
-        <v>3.4810000000000002E-3</v>
-      </c>
-      <c r="G50" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B51" s="2">
-        <v>44357</v>
-      </c>
-      <c r="C51" s="3">
-        <v>0.59027777777777779</v>
-      </c>
-      <c r="D51" s="3">
-        <v>0.59375</v>
-      </c>
-      <c r="F51">
-        <v>2.2439999999999999E-3</v>
-      </c>
-      <c r="G51" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B52" s="2">
-        <v>44358</v>
-      </c>
-      <c r="C52" s="3">
-        <v>0.46597222222222223</v>
-      </c>
-      <c r="D52" s="3">
-        <v>0.46875</v>
-      </c>
-      <c r="E52" s="5">
-        <v>25.743749999999999</v>
-      </c>
-      <c r="F52">
-        <v>1.6169999999999999E-3</v>
-      </c>
-      <c r="G52" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B53" s="2">
-        <v>44361</v>
-      </c>
-      <c r="C53" s="3">
-        <v>0.4694444444444445</v>
-      </c>
-      <c r="D53" s="3">
-        <v>0.46875</v>
-      </c>
-      <c r="E53" s="4"/>
-      <c r="F53">
-        <v>5.1240000000000001E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B54" s="2">
-        <v>44365</v>
-      </c>
-      <c r="C54" s="3">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D54" s="3">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E54" s="4">
-        <v>26.338239999999999</v>
-      </c>
-      <c r="G54" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B55" s="2">
-        <v>44372</v>
-      </c>
-      <c r="C55" s="3">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="D55" s="3">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="E55" s="4"/>
-      <c r="F55">
-        <v>7.064E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B56" s="2">
-        <v>44375</v>
-      </c>
-      <c r="C56" s="3">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D56" s="3">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E56" s="4">
-        <v>22.264479999999999</v>
-      </c>
-      <c r="F56">
-        <v>5.1710000000000002E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B57" s="2">
-        <v>44382</v>
-      </c>
-      <c r="C57" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D57" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="E57" s="4">
-        <v>24.33756</v>
-      </c>
-      <c r="F57">
-        <v>1.2959999999999999E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B58" s="2">
-        <v>44386</v>
-      </c>
-      <c r="C58" s="3">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="D58" s="3">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="E58" s="4">
-        <v>23.915400000000002</v>
-      </c>
-      <c r="F58">
-        <v>8.0551019999999997E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B59" s="2">
-        <v>44389</v>
-      </c>
-      <c r="C59" s="3">
-        <v>0.60763888888888895</v>
-      </c>
-      <c r="D59" s="3">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="E59" s="4">
-        <v>27.454830000000001</v>
-      </c>
-      <c r="F59">
-        <v>2.2454000000000002E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B60" s="2">
-        <v>44390</v>
-      </c>
-      <c r="C60" s="3">
-        <v>0.60763888888888895</v>
-      </c>
-      <c r="D60" s="3">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="E60" s="4">
-        <v>25.74681</v>
-      </c>
-      <c r="F60">
-        <v>1.8588E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B61" s="2">
-        <v>44391</v>
-      </c>
-      <c r="C61" s="3">
-        <v>0.56805555555555554</v>
-      </c>
-      <c r="D61" s="3">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="E61" s="4">
-        <v>26.459589999999999</v>
-      </c>
-      <c r="F61">
-        <v>8.0300000000000007E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B62" s="2">
-        <v>44393</v>
-      </c>
-      <c r="C62" s="3">
-        <v>0.52777777777777779</v>
-      </c>
-      <c r="D62" s="3">
-        <v>0.53125</v>
-      </c>
-      <c r="E62" s="4">
-        <v>19.04524</v>
-      </c>
-      <c r="F62">
-        <v>4.4510000000000001E-3</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B63" s="2">
-        <v>44396</v>
-      </c>
-      <c r="C63" s="3">
-        <v>0.4826388888888889</v>
-      </c>
-      <c r="D63" s="3">
-        <v>0.47916666666666669</v>
-      </c>
+      <c r="A48" s="2"/>
+      <c r="D48" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E48">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="2"/>
+      <c r="D49" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E49">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="2"/>
+      <c r="D50" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E50">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="2"/>
+      <c r="D51" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E51">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="2"/>
+      <c r="D52" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E52">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D53" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E53">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B54" s="1"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B56" s="2"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B57" s="2"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B58" s="2"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B59" s="2"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B60" s="2"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B61" s="2"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B62" s="2"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B63" s="2"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
       <c r="E63" s="4"/>
-      <c r="F63">
-        <v>0.23874000000000001</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B64" s="2">
-        <v>44397</v>
-      </c>
-      <c r="C64" s="3">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D64" s="3">
-        <v>0.41666666666666669</v>
-      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B64" s="2"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
       <c r="E64" s="4"/>
-      <c r="F64">
-        <v>9.1047500000000003E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B65" s="2">
-        <v>44400</v>
-      </c>
-      <c r="C65" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D65" s="3">
-        <v>0.5</v>
-      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B65" s="2"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
       <c r="E65" s="4"/>
-      <c r="F65">
-        <v>7.2412500000000005E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B66" s="2">
-        <v>44403</v>
-      </c>
-      <c r="C66" s="3">
-        <v>0.63541666666666663</v>
-      </c>
-      <c r="D66" s="3">
-        <v>0.63541666666666663</v>
-      </c>
-      <c r="E66" s="4">
-        <v>21.899419999999999</v>
-      </c>
-      <c r="F66">
-        <v>2.4760500000000001E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B67" s="2">
-        <v>44404</v>
-      </c>
-      <c r="C67" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D67" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="E67" s="4">
-        <v>20.78181</v>
-      </c>
-      <c r="F67">
-        <v>1.4876E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B68" s="2">
-        <v>44368</v>
-      </c>
-      <c r="C68" s="3">
-        <v>0.45208333333333334</v>
-      </c>
-      <c r="D68" s="3">
-        <v>0.44791666666666669</v>
-      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B66" s="2"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="4"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B67" s="2"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B68" s="2"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
       <c r="E68" s="4"/>
-      <c r="F68">
-        <v>8.0810000000000021E-2</v>
-      </c>
-      <c r="G68" t="s">
-        <v>6</v>
-      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B69" s="2"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B70" s="2"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B71" s="2"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="4"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B72" s="2"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="4"/>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B73" s="2"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="4"/>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B74" s="2"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Discharge/RatingCurves/Stn3.xlsx
+++ b/Discharge/RatingCurves/Stn3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whitm\OneDrive - University of North Carolina at Chapel Hill\Ecuador2021\Ecuador2021\Discharge\RatingCurves\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/kriddie_ad_unc_edu/Documents/Ecuador2021/Ecuador2021/Discharge/RatingCurves/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E510AE7-179A-4A8F-883C-B1E83318EDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{53D00B0A-2B19-4C6E-8D2D-A5D936CC125C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{53D00B0A-2B19-4C6E-8D2D-A5D936CC125C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -231,7 +231,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-EC"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -306,7 +306,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-EC"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -501,7 +501,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2058629327"/>
@@ -563,7 +563,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2058630575"/>
@@ -611,7 +611,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-EC"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -662,7 +662,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-EC"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -737,7 +737,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-EC"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -974,7 +974,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1370917616"/>
@@ -1036,7 +1036,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1370917200"/>
@@ -1084,7 +1084,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-EC"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2583,22 +2583,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BA2543-2DA7-4D8E-9FC4-E1FF8DA8EE74}">
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44356</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44357</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44358</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44361</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>5.1240000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44365</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44372</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>7.064E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44375</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>5.1710000000000002E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44382</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>1.2959999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44386</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>8.0551019999999997E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44389</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>2.2454000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44390</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>1.8588E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44391</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>8.0300000000000007E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44393</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>4.4510000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44396</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>0.23874000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>44397</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>9.1047500000000003E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>44400</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>7.2412500000000005E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>44403</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>2.4760500000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>44404</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>1.4876E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>44368</v>
       </c>
@@ -2944,17 +2944,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>44356</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>44357</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>44358</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>44361</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>5.1240000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>44365</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>44372</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>7.064E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>44375</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>5.1710000000000002E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>44382</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>1.2959999999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>44386</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>8.0551019999999997E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>44389</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>2.2454000000000002E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>44390</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>1.8588E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>44391</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>8.0300000000000007E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>44393</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>4.4510000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>44396</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>0.23874000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>44397</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>9.1047500000000003E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>44400</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>7.2412500000000005E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>44403</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>2.4760500000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>44404</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>1.4876E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44368</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>44489</v>
       </c>
@@ -3320,11 +3320,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="D48" s="4">
         <v>0.1</v>
@@ -3333,7 +3333,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="D49" s="4">
         <v>0.1</v>
@@ -3342,7 +3342,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="D50" s="4">
         <v>0.1</v>
@@ -3351,7 +3351,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="D51" s="4">
         <v>0.1</v>
@@ -3360,7 +3360,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="D52" s="4">
         <v>0.1</v>
@@ -3369,7 +3369,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D53" s="4">
         <v>0.1</v>
       </c>
@@ -3377,116 +3377,116 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B54" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B56" s="2"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B57" s="2"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B58" s="2"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="5"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B59" s="2"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B60" s="2"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B61" s="2"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="4"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B62" s="2"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="4"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B63" s="2"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="4"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B64" s="2"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="4"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="2"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="4"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="2"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="4"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="2"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="4"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="2"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="4"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="2"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="4"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="2"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="4"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="2"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="4"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="2"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="4"/>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" s="2"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="4"/>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" s="2"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>

--- a/Discharge/RatingCurves/Stn3.xlsx
+++ b/Discharge/RatingCurves/Stn3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/kriddie_ad_unc_edu/Documents/Ecuador2021/Ecuador2021/Discharge/RatingCurves/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E510AE7-179A-4A8F-883C-B1E83318EDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="13_ncr:1_{7E510AE7-179A-4A8F-883C-B1E83318EDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{727CC8FD-1221-254A-B327-FBACA78442C2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{53D00B0A-2B19-4C6E-8D2D-A5D936CC125C}"/>
+    <workbookView xWindow="15420" yWindow="1000" windowWidth="21320" windowHeight="20260" xr2:uid="{53D00B0A-2B19-4C6E-8D2D-A5D936CC125C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -103,12 +103,18 @@
   <si>
     <t>Use 11:15 collcted be USFQ, some assumptions had to be made</t>
   </si>
+  <si>
+    <t>Nov 10 2022</t>
+  </si>
+  <si>
+    <t>no water level</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +150,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -165,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -174,6 +192,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1095,6 +1115,523 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$59:$E$60</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.003481</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.002244</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$61:$D$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0.25743850000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27138830000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27359090000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28178940000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2226457</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2433766</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2391549</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2745494</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25746910000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26459690000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19045309999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.55900030000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.45667140000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.38481169999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.2189951</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.2078189</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.44505679999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.1103093</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.13421549999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.23078299999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.31183040000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$61:$E$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1.6169999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1240000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.064E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1710000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2959999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0551019999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2454000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8588E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0300000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.4510000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.23874000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.1047500000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.2412500000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4760500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4876E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.0810000000000021E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4179999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.5700000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.1700000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.3154999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.933E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.2830000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EBFD-454F-A610-6E0C3546D3EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="492538159"/>
+        <c:axId val="573715183"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="492538159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="573715183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="573715183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="492538159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1175,6 +1712,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1692,6 +2269,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2276,6 +3369,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DE15D56-57C1-3544-6175-808B8E33719A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2581,16 +3710,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BA2543-2DA7-4D8E-9FC4-E1FF8DA8EE74}">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -3333,7 +4463,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="D49" s="4">
         <v>0.1</v>
@@ -3342,7 +4472,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="D50" s="4">
         <v>0.1</v>
@@ -3351,7 +4481,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="D51" s="4">
         <v>0.1</v>
@@ -3360,7 +4490,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="D52" s="4">
         <v>0.1</v>
@@ -3369,7 +4499,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D53" s="4">
         <v>0.1</v>
       </c>
@@ -3377,120 +4507,525 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B54" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B56" s="2"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B57" s="2"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B58" s="2"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="5"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="2"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="4"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="2"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="4"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="2"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="4"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="2"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="4"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="2"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="4"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="2"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="4"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" s="2"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="4"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" s="2"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="4"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="2"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="4"/>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B68" s="2"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="4"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B69" s="2"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="4"/>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B70" s="2"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="4"/>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B71" s="2"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="4"/>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B72" s="2"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="4"/>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B73" s="2"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="4"/>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B74" s="2"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="4"/>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>44356</v>
+      </c>
+      <c r="B59" s="3">
+        <v>0.51250000000000007</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E59">
+        <v>3.4810000000000002E-3</v>
+      </c>
+      <c r="F59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>44357</v>
+      </c>
+      <c r="B60" s="3">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0.59375</v>
+      </c>
+      <c r="E60">
+        <v>2.2439999999999999E-3</v>
+      </c>
+      <c r="F60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>44358</v>
+      </c>
+      <c r="B61" s="3">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D61" s="6">
+        <v>0.25743850000000001</v>
+      </c>
+      <c r="E61">
+        <v>1.6169999999999999E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>44361</v>
+      </c>
+      <c r="B62" s="3">
+        <v>0.4694444444444445</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0.46875</v>
+      </c>
+      <c r="D62" s="7">
+        <v>0.27138830000000003</v>
+      </c>
+      <c r="E62">
+        <v>5.1240000000000001E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>44365</v>
+      </c>
+      <c r="B63" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0.53125</v>
+      </c>
+      <c r="D63" s="7">
+        <v>0.27359090000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>44372</v>
+      </c>
+      <c r="B64" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D64" s="7">
+        <v>0.28178940000000002</v>
+      </c>
+      <c r="E64">
+        <v>7.064E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>44375</v>
+      </c>
+      <c r="B65" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D65" s="7">
+        <v>0.2226457</v>
+      </c>
+      <c r="E65">
+        <v>5.1710000000000002E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B66" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D66" s="7">
+        <v>0.2433766</v>
+      </c>
+      <c r="E66">
+        <v>1.2959999999999999E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B67" s="3">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D67" s="7">
+        <v>0.2391549</v>
+      </c>
+      <c r="E67">
+        <v>8.0551019999999997E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>44389</v>
+      </c>
+      <c r="B68" s="3">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D68" s="7">
+        <v>0.2745494</v>
+      </c>
+      <c r="E68">
+        <v>2.2454000000000002E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>44390</v>
+      </c>
+      <c r="B69" s="3">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D69" s="7">
+        <v>0.25746910000000001</v>
+      </c>
+      <c r="E69">
+        <v>1.8588E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>44391</v>
+      </c>
+      <c r="B70" s="3">
+        <v>0.56805555555555554</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D70" s="7">
+        <v>0.26459690000000002</v>
+      </c>
+      <c r="E70">
+        <v>8.0300000000000007E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>44393</v>
+      </c>
+      <c r="B71" s="3">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0.53125</v>
+      </c>
+      <c r="D71" s="7">
+        <v>0.19045309999999999</v>
+      </c>
+      <c r="E71">
+        <v>4.4510000000000001E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>44396</v>
+      </c>
+      <c r="B72" s="3">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D72" s="7">
+        <v>0.55900030000000001</v>
+      </c>
+      <c r="E72">
+        <v>0.23874000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>44397</v>
+      </c>
+      <c r="B73" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D73" s="7">
+        <v>0.45667140000000001</v>
+      </c>
+      <c r="E73">
+        <v>9.1047500000000003E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>44400</v>
+      </c>
+      <c r="B74" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C74" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D74" s="7">
+        <v>0.38481169999999998</v>
+      </c>
+      <c r="E74">
+        <v>7.2412500000000005E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>44403</v>
+      </c>
+      <c r="B75" s="3">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="C75" s="3">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="D75" s="7">
+        <v>0.2189951</v>
+      </c>
+      <c r="E75">
+        <v>2.4760500000000001E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>44404</v>
+      </c>
+      <c r="B76" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C76" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D76" s="7">
+        <v>0.2078189</v>
+      </c>
+      <c r="E76">
+        <v>1.4876E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>44368</v>
+      </c>
+      <c r="B77" s="3">
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="C77" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D77" s="7">
+        <v>0.44505679999999997</v>
+      </c>
+      <c r="E77">
+        <v>8.0810000000000021E-2</v>
+      </c>
+      <c r="F77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A78" s="2"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="7"/>
+    </row>
+    <row r="80" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>44489</v>
+      </c>
+      <c r="B80" s="3">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="C80" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D80" s="7">
+        <v>0.1103093</v>
+      </c>
+      <c r="E80">
+        <v>1.4179999999999996E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>44714</v>
+      </c>
+      <c r="B82" s="3">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="C82" s="3">
+        <v>0.59375</v>
+      </c>
+      <c r="D82" s="7">
+        <v>0.13421549999999999</v>
+      </c>
+      <c r="E82">
+        <v>3.5700000000000003E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>44719</v>
+      </c>
+      <c r="B83" s="3">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="C83" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E83">
+        <v>3.1700000000000001E-3</v>
+      </c>
+      <c r="F83" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>44741</v>
+      </c>
+      <c r="B84" s="3">
+        <v>0.53125</v>
+      </c>
+      <c r="C84" s="3">
+        <v>0.53125</v>
+      </c>
+      <c r="E84">
+        <v>1.3154999999999998E-2</v>
+      </c>
+      <c r="F84" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>44764</v>
+      </c>
+      <c r="B85" s="3">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="C85" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D85" s="7">
+        <v>0.23078299999999999</v>
+      </c>
+      <c r="E85">
+        <v>1.933E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>44769</v>
+      </c>
+      <c r="B86" s="3">
+        <v>0.43263888888888885</v>
+      </c>
+      <c r="C86" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="D86" s="7">
+        <v>0.31183040000000001</v>
+      </c>
+      <c r="E86">
+        <v>2.2830000000000003E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D88">
+        <v>0.1</v>
+      </c>
+      <c r="E88">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D89">
+        <v>0.1</v>
+      </c>
+      <c r="E89">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D90">
+        <v>0.1</v>
+      </c>
+      <c r="E90">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D91">
+        <v>0.1</v>
+      </c>
+      <c r="E91">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D92">
+        <v>0.1</v>
+      </c>
+      <c r="E92">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D93">
+        <v>0.1</v>
+      </c>
+      <c r="E93">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D94">
+        <v>0.1</v>
+      </c>
+      <c r="E94">
+        <v>1E-4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
